--- a/DP-Andres/archivos-dp/parametros_empresa.xlsx
+++ b/DP-Andres/archivos-dp/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="encargado_sur" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="encargado_oriente" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="encargado_occidente" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="usuarios" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -781,7 +782,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -881,6 +882,29 @@
     <hyperlink ref="B6" r:id="rId5" display="dpdelta24@gmail.com"/>
     <hyperlink ref="B7" r:id="rId6" display="dpdelta25@gmail.com"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -971,7 +995,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1434,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1481,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
